--- a/data/문화 데이터셋/서울 공공도서관/강남구.xlsx
+++ b/data/문화 데이터셋/서울 공공도서관/강남구.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\[~24]정보공개요청자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\서울 공공도서관\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE75245-7F2C-4582-A71A-2796EA988EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="376" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공공도서관현황" sheetId="1" r:id="rId1"/>
-    <sheet name="번호.(자치구명) 도서관명" sheetId="2" r:id="rId2"/>
+    <sheet name="강남구" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">공공도서관현황!$1:$175</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3772,7 +3783,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
@@ -4161,8 +4172,14 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4173,20 +4190,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4372,7 +4383,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -4381,7 +4392,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -4656,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2" filterMode="1"/>
   <dimension ref="A1:XFD175"/>
   <sheetViews>
@@ -4664,21 +4675,21 @@
       <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="6"/>
-    <col min="5" max="5" width="14.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="6" customWidth="1"/>
     <col min="6" max="9" width="8.75" style="6"/>
     <col min="10" max="10" width="47" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>1111</v>
       </c>
@@ -22856,7 +22867,7 @@
       <c r="XFC1" s="24"/>
       <c r="XFD1" s="24"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -24024,7 +24035,7 @@
       <c r="WVU2" s="21"/>
       <c r="WVV2" s="21"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -24310,7 +24321,7 @@
       <c r="IU3" s="20"/>
       <c r="IV3" s="20"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -24596,7 +24607,7 @@
       <c r="IU4" s="20"/>
       <c r="IV4" s="20"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -24882,7 +24893,7 @@
       <c r="IU5" s="20"/>
       <c r="IV5" s="20"/>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A6" s="26">
         <v>5</v>
       </c>
@@ -25168,7 +25179,7 @@
       <c r="IU6" s="20"/>
       <c r="IV6" s="20"/>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -25454,7 +25465,7 @@
       <c r="IU7" s="20"/>
       <c r="IV7" s="20"/>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -25740,7 +25751,7 @@
       <c r="IU8" s="20"/>
       <c r="IV8" s="20"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -26026,7 +26037,7 @@
       <c r="IU9" s="20"/>
       <c r="IV9" s="20"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -26312,7 +26323,7 @@
       <c r="IU10" s="20"/>
       <c r="IV10" s="20"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -26598,7 +26609,7 @@
       <c r="IU11" s="20"/>
       <c r="IV11" s="20"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -26884,7 +26895,7 @@
       <c r="IU12" s="20"/>
       <c r="IV12" s="20"/>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -27170,7 +27181,7 @@
       <c r="IU13" s="20"/>
       <c r="IV13" s="20"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -27456,7 +27467,7 @@
       <c r="IU14" s="20"/>
       <c r="IV14" s="20"/>
     </row>
-    <row r="15" spans="1:16384" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16384" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -27742,7 +27753,7 @@
       <c r="IU15" s="20"/>
       <c r="IV15" s="20"/>
     </row>
-    <row r="16" spans="1:16384" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16384" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -28028,7 +28039,7 @@
       <c r="IU16" s="20"/>
       <c r="IV16" s="20"/>
     </row>
-    <row r="17" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="26">
         <v>16</v>
       </c>
@@ -28314,7 +28325,7 @@
       <c r="IU17" s="20"/>
       <c r="IV17" s="20"/>
     </row>
-    <row r="18" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="26">
         <v>17</v>
       </c>
@@ -28600,7 +28611,7 @@
       <c r="IU18" s="20"/>
       <c r="IV18" s="20"/>
     </row>
-    <row r="19" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="26">
         <v>18</v>
       </c>
@@ -28886,7 +28897,7 @@
       <c r="IU19" s="20"/>
       <c r="IV19" s="20"/>
     </row>
-    <row r="20" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="26">
         <v>19</v>
       </c>
@@ -29172,7 +29183,7 @@
       <c r="IU20" s="20"/>
       <c r="IV20" s="20"/>
     </row>
-    <row r="21" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="26">
         <v>20</v>
       </c>
@@ -29458,7 +29469,7 @@
       <c r="IU21" s="20"/>
       <c r="IV21" s="20"/>
     </row>
-    <row r="22" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="26">
         <v>21</v>
       </c>
@@ -29744,7 +29755,7 @@
       <c r="IU22" s="20"/>
       <c r="IV22" s="20"/>
     </row>
-    <row r="23" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="26">
         <v>22</v>
       </c>
@@ -30030,7 +30041,7 @@
       <c r="IU23" s="20"/>
       <c r="IV23" s="20"/>
     </row>
-    <row r="24" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="26">
         <v>23</v>
       </c>
@@ -30316,7 +30327,7 @@
       <c r="IU24" s="20"/>
       <c r="IV24" s="20"/>
     </row>
-    <row r="25" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -30602,7 +30613,7 @@
       <c r="IU25" s="20"/>
       <c r="IV25" s="20"/>
     </row>
-    <row r="26" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="26">
         <v>25</v>
       </c>
@@ -30888,7 +30899,7 @@
       <c r="IU26" s="20"/>
       <c r="IV26" s="20"/>
     </row>
-    <row r="27" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="26">
         <v>26</v>
       </c>
@@ -31174,7 +31185,7 @@
       <c r="IU27" s="20"/>
       <c r="IV27" s="20"/>
     </row>
-    <row r="28" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="26">
         <v>27</v>
       </c>
@@ -31460,7 +31471,7 @@
       <c r="IU28" s="20"/>
       <c r="IV28" s="20"/>
     </row>
-    <row r="29" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="26">
         <v>28</v>
       </c>
@@ -31746,7 +31757,7 @@
       <c r="IU29" s="20"/>
       <c r="IV29" s="20"/>
     </row>
-    <row r="30" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="26">
         <v>29</v>
       </c>
@@ -32032,7 +32043,7 @@
       <c r="IU30" s="20"/>
       <c r="IV30" s="20"/>
     </row>
-    <row r="31" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="26">
         <v>30</v>
       </c>
@@ -32318,7 +32329,7 @@
       <c r="IU31" s="20"/>
       <c r="IV31" s="20"/>
     </row>
-    <row r="32" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="26">
         <v>31</v>
       </c>
@@ -32604,7 +32615,7 @@
       <c r="IU32" s="20"/>
       <c r="IV32" s="20"/>
     </row>
-    <row r="33" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="26">
         <v>32</v>
       </c>
@@ -32890,7 +32901,7 @@
       <c r="IU33" s="20"/>
       <c r="IV33" s="20"/>
     </row>
-    <row r="34" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="26">
         <v>33</v>
       </c>
@@ -33176,7 +33187,7 @@
       <c r="IU34" s="20"/>
       <c r="IV34" s="20"/>
     </row>
-    <row r="35" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="26">
         <v>34</v>
       </c>
@@ -33462,7 +33473,7 @@
       <c r="IU35" s="20"/>
       <c r="IV35" s="20"/>
     </row>
-    <row r="36" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="26">
         <v>35</v>
       </c>
@@ -33748,7 +33759,7 @@
       <c r="IU36" s="20"/>
       <c r="IV36" s="20"/>
     </row>
-    <row r="37" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="26">
         <v>36</v>
       </c>
@@ -34034,7 +34045,7 @@
       <c r="IU37" s="20"/>
       <c r="IV37" s="20"/>
     </row>
-    <row r="38" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="26">
         <v>37</v>
       </c>
@@ -34320,7 +34331,7 @@
       <c r="IU38" s="20"/>
       <c r="IV38" s="20"/>
     </row>
-    <row r="39" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="26">
         <v>38</v>
       </c>
@@ -34606,7 +34617,7 @@
       <c r="IU39" s="20"/>
       <c r="IV39" s="20"/>
     </row>
-    <row r="40" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="26">
         <v>39</v>
       </c>
@@ -34892,7 +34903,7 @@
       <c r="IU40" s="20"/>
       <c r="IV40" s="20"/>
     </row>
-    <row r="41" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="26">
         <v>40</v>
       </c>
@@ -35178,7 +35189,7 @@
       <c r="IU41" s="20"/>
       <c r="IV41" s="20"/>
     </row>
-    <row r="42" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="26">
         <v>41</v>
       </c>
@@ -35464,7 +35475,7 @@
       <c r="IU42" s="20"/>
       <c r="IV42" s="20"/>
     </row>
-    <row r="43" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="26">
         <v>42</v>
       </c>
@@ -35750,7 +35761,7 @@
       <c r="IU43" s="20"/>
       <c r="IV43" s="20"/>
     </row>
-    <row r="44" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="26">
         <v>43</v>
       </c>
@@ -36036,7 +36047,7 @@
       <c r="IU44" s="20"/>
       <c r="IV44" s="20"/>
     </row>
-    <row r="45" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="26">
         <v>44</v>
       </c>
@@ -36322,7 +36333,7 @@
       <c r="IU45" s="20"/>
       <c r="IV45" s="20"/>
     </row>
-    <row r="46" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="26">
         <v>45</v>
       </c>
@@ -36608,7 +36619,7 @@
       <c r="IU46" s="20"/>
       <c r="IV46" s="20"/>
     </row>
-    <row r="47" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="26">
         <v>46</v>
       </c>
@@ -36894,7 +36905,7 @@
       <c r="IU47" s="20"/>
       <c r="IV47" s="20"/>
     </row>
-    <row r="48" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="26">
         <v>47</v>
       </c>
@@ -37180,7 +37191,7 @@
       <c r="IU48" s="20"/>
       <c r="IV48" s="20"/>
     </row>
-    <row r="49" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="26">
         <v>48</v>
       </c>
@@ -37466,7 +37477,7 @@
       <c r="IU49" s="20"/>
       <c r="IV49" s="20"/>
     </row>
-    <row r="50" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="26">
         <v>49</v>
       </c>
@@ -37752,7 +37763,7 @@
       <c r="IU50" s="20"/>
       <c r="IV50" s="20"/>
     </row>
-    <row r="51" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="26">
         <v>50</v>
       </c>
@@ -38038,7 +38049,7 @@
       <c r="IU51" s="20"/>
       <c r="IV51" s="20"/>
     </row>
-    <row r="52" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="26">
         <v>51</v>
       </c>
@@ -38324,7 +38335,7 @@
       <c r="IU52" s="20"/>
       <c r="IV52" s="20"/>
     </row>
-    <row r="53" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="26">
         <v>52</v>
       </c>
@@ -38610,7 +38621,7 @@
       <c r="IU53" s="20"/>
       <c r="IV53" s="20"/>
     </row>
-    <row r="54" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="26">
         <v>53</v>
       </c>
@@ -38896,7 +38907,7 @@
       <c r="IU54" s="20"/>
       <c r="IV54" s="20"/>
     </row>
-    <row r="55" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="26">
         <v>54</v>
       </c>
@@ -39182,7 +39193,7 @@
       <c r="IU55" s="20"/>
       <c r="IV55" s="20"/>
     </row>
-    <row r="56" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="26">
         <v>55</v>
       </c>
@@ -39468,7 +39479,7 @@
       <c r="IU56" s="20"/>
       <c r="IV56" s="20"/>
     </row>
-    <row r="57" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="26">
         <v>56</v>
       </c>
@@ -39754,7 +39765,7 @@
       <c r="IU57" s="20"/>
       <c r="IV57" s="20"/>
     </row>
-    <row r="58" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="26">
         <v>57</v>
       </c>
@@ -40040,7 +40051,7 @@
       <c r="IU58" s="20"/>
       <c r="IV58" s="20"/>
     </row>
-    <row r="59" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="26">
         <v>58</v>
       </c>
@@ -40326,7 +40337,7 @@
       <c r="IU59" s="20"/>
       <c r="IV59" s="20"/>
     </row>
-    <row r="60" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="26">
         <v>59</v>
       </c>
@@ -40612,7 +40623,7 @@
       <c r="IU60" s="20"/>
       <c r="IV60" s="20"/>
     </row>
-    <row r="61" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="26">
         <v>60</v>
       </c>
@@ -40898,7 +40909,7 @@
       <c r="IU61" s="20"/>
       <c r="IV61" s="20"/>
     </row>
-    <row r="62" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="26">
         <v>61</v>
       </c>
@@ -41184,7 +41195,7 @@
       <c r="IU62" s="20"/>
       <c r="IV62" s="20"/>
     </row>
-    <row r="63" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="26">
         <v>62</v>
       </c>
@@ -41470,7 +41481,7 @@
       <c r="IU63" s="20"/>
       <c r="IV63" s="20"/>
     </row>
-    <row r="64" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="26">
         <v>63</v>
       </c>
@@ -41756,7 +41767,7 @@
       <c r="IU64" s="20"/>
       <c r="IV64" s="20"/>
     </row>
-    <row r="65" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="26">
         <v>64</v>
       </c>
@@ -42042,7 +42053,7 @@
       <c r="IU65" s="20"/>
       <c r="IV65" s="20"/>
     </row>
-    <row r="66" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="26">
         <v>65</v>
       </c>
@@ -42328,7 +42339,7 @@
       <c r="IU66" s="20"/>
       <c r="IV66" s="20"/>
     </row>
-    <row r="67" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="26">
         <v>66</v>
       </c>
@@ -42614,7 +42625,7 @@
       <c r="IU67" s="20"/>
       <c r="IV67" s="20"/>
     </row>
-    <row r="68" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="26">
         <v>67</v>
       </c>
@@ -42900,7 +42911,7 @@
       <c r="IU68" s="20"/>
       <c r="IV68" s="20"/>
     </row>
-    <row r="69" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="26">
         <v>68</v>
       </c>
@@ -43186,7 +43197,7 @@
       <c r="IU69" s="20"/>
       <c r="IV69" s="20"/>
     </row>
-    <row r="70" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="26">
         <v>69</v>
       </c>
@@ -43472,7 +43483,7 @@
       <c r="IU70" s="20"/>
       <c r="IV70" s="20"/>
     </row>
-    <row r="71" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="26">
         <v>70</v>
       </c>
@@ -43758,7 +43769,7 @@
       <c r="IU71" s="20"/>
       <c r="IV71" s="20"/>
     </row>
-    <row r="72" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="26">
         <v>71</v>
       </c>
@@ -44044,7 +44055,7 @@
       <c r="IU72" s="20"/>
       <c r="IV72" s="20"/>
     </row>
-    <row r="73" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="26">
         <v>72</v>
       </c>
@@ -44330,7 +44341,7 @@
       <c r="IU73" s="20"/>
       <c r="IV73" s="20"/>
     </row>
-    <row r="74" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="26">
         <v>73</v>
       </c>
@@ -44616,7 +44627,7 @@
       <c r="IU74" s="20"/>
       <c r="IV74" s="20"/>
     </row>
-    <row r="75" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="26">
         <v>74</v>
       </c>
@@ -44902,7 +44913,7 @@
       <c r="IU75" s="20"/>
       <c r="IV75" s="20"/>
     </row>
-    <row r="76" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="26">
         <v>75</v>
       </c>
@@ -45188,7 +45199,7 @@
       <c r="IU76" s="20"/>
       <c r="IV76" s="20"/>
     </row>
-    <row r="77" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="26">
         <v>76</v>
       </c>
@@ -45474,7 +45485,7 @@
       <c r="IU77" s="20"/>
       <c r="IV77" s="20"/>
     </row>
-    <row r="78" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="26">
         <v>77</v>
       </c>
@@ -45760,7 +45771,7 @@
       <c r="IU78" s="20"/>
       <c r="IV78" s="20"/>
     </row>
-    <row r="79" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="26">
         <v>78</v>
       </c>
@@ -46046,7 +46057,7 @@
       <c r="IU79" s="20"/>
       <c r="IV79" s="20"/>
     </row>
-    <row r="80" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="26">
         <v>79</v>
       </c>
@@ -46332,7 +46343,7 @@
       <c r="IU80" s="20"/>
       <c r="IV80" s="20"/>
     </row>
-    <row r="81" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="26">
         <v>80</v>
       </c>
@@ -46618,7 +46629,7 @@
       <c r="IU81" s="20"/>
       <c r="IV81" s="20"/>
     </row>
-    <row r="82" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="26">
         <v>81</v>
       </c>
@@ -46904,7 +46915,7 @@
       <c r="IU82" s="20"/>
       <c r="IV82" s="20"/>
     </row>
-    <row r="83" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="26">
         <v>82</v>
       </c>
@@ -47190,7 +47201,7 @@
       <c r="IU83" s="20"/>
       <c r="IV83" s="20"/>
     </row>
-    <row r="84" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="26">
         <v>83</v>
       </c>
@@ -47476,7 +47487,7 @@
       <c r="IU84" s="20"/>
       <c r="IV84" s="20"/>
     </row>
-    <row r="85" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="26">
         <v>84</v>
       </c>
@@ -47762,7 +47773,7 @@
       <c r="IU85" s="20"/>
       <c r="IV85" s="20"/>
     </row>
-    <row r="86" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="26">
         <v>85</v>
       </c>
@@ -48048,7 +48059,7 @@
       <c r="IU86" s="20"/>
       <c r="IV86" s="20"/>
     </row>
-    <row r="87" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="26">
         <v>86</v>
       </c>
@@ -48334,7 +48345,7 @@
       <c r="IU87" s="20"/>
       <c r="IV87" s="20"/>
     </row>
-    <row r="88" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="26">
         <v>87</v>
       </c>
@@ -48620,7 +48631,7 @@
       <c r="IU88" s="20"/>
       <c r="IV88" s="20"/>
     </row>
-    <row r="89" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="26">
         <v>88</v>
       </c>
@@ -48906,7 +48917,7 @@
       <c r="IU89" s="20"/>
       <c r="IV89" s="20"/>
     </row>
-    <row r="90" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="26">
         <v>89</v>
       </c>
@@ -49192,7 +49203,7 @@
       <c r="IU90" s="20"/>
       <c r="IV90" s="20"/>
     </row>
-    <row r="91" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="26">
         <v>90</v>
       </c>
@@ -49478,7 +49489,7 @@
       <c r="IU91" s="20"/>
       <c r="IV91" s="20"/>
     </row>
-    <row r="92" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="26">
         <v>91</v>
       </c>
@@ -49764,7 +49775,7 @@
       <c r="IU92" s="20"/>
       <c r="IV92" s="20"/>
     </row>
-    <row r="93" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="26">
         <v>92</v>
       </c>
@@ -50050,7 +50061,7 @@
       <c r="IU93" s="20"/>
       <c r="IV93" s="20"/>
     </row>
-    <row r="94" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="26">
         <v>93</v>
       </c>
@@ -50336,7 +50347,7 @@
       <c r="IU94" s="20"/>
       <c r="IV94" s="20"/>
     </row>
-    <row r="95" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="26">
         <v>94</v>
       </c>
@@ -50622,7 +50633,7 @@
       <c r="IU95" s="20"/>
       <c r="IV95" s="20"/>
     </row>
-    <row r="96" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="26">
         <v>95</v>
       </c>
@@ -50908,7 +50919,7 @@
       <c r="IU96" s="20"/>
       <c r="IV96" s="20"/>
     </row>
-    <row r="97" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="26">
         <v>96</v>
       </c>
@@ -51194,7 +51205,7 @@
       <c r="IU97" s="20"/>
       <c r="IV97" s="20"/>
     </row>
-    <row r="98" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="26">
         <v>97</v>
       </c>
@@ -51480,7 +51491,7 @@
       <c r="IU98" s="20"/>
       <c r="IV98" s="20"/>
     </row>
-    <row r="99" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="26">
         <v>98</v>
       </c>
@@ -51766,7 +51777,7 @@
       <c r="IU99" s="20"/>
       <c r="IV99" s="20"/>
     </row>
-    <row r="100" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="26">
         <v>99</v>
       </c>
@@ -52052,7 +52063,7 @@
       <c r="IU100" s="20"/>
       <c r="IV100" s="20"/>
     </row>
-    <row r="101" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="26">
         <v>100</v>
       </c>
@@ -52338,7 +52349,7 @@
       <c r="IU101" s="20"/>
       <c r="IV101" s="20"/>
     </row>
-    <row r="102" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="26">
         <v>101</v>
       </c>
@@ -52624,7 +52635,7 @@
       <c r="IU102" s="20"/>
       <c r="IV102" s="20"/>
     </row>
-    <row r="103" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="26">
         <v>102</v>
       </c>
@@ -52910,7 +52921,7 @@
       <c r="IU103" s="20"/>
       <c r="IV103" s="20"/>
     </row>
-    <row r="104" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="26">
         <v>103</v>
       </c>
@@ -53196,7 +53207,7 @@
       <c r="IU104" s="20"/>
       <c r="IV104" s="20"/>
     </row>
-    <row r="105" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="26">
         <v>104</v>
       </c>
@@ -53482,7 +53493,7 @@
       <c r="IU105" s="20"/>
       <c r="IV105" s="20"/>
     </row>
-    <row r="106" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="26">
         <v>105</v>
       </c>
@@ -53768,7 +53779,7 @@
       <c r="IU106" s="20"/>
       <c r="IV106" s="20"/>
     </row>
-    <row r="107" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="26">
         <v>106</v>
       </c>
@@ -54054,7 +54065,7 @@
       <c r="IU107" s="20"/>
       <c r="IV107" s="20"/>
     </row>
-    <row r="108" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="26">
         <v>107</v>
       </c>
@@ -54340,7 +54351,7 @@
       <c r="IU108" s="20"/>
       <c r="IV108" s="20"/>
     </row>
-    <row r="109" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="26">
         <v>108</v>
       </c>
@@ -54626,7 +54637,7 @@
       <c r="IU109" s="20"/>
       <c r="IV109" s="20"/>
     </row>
-    <row r="110" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="26">
         <v>109</v>
       </c>
@@ -54912,7 +54923,7 @@
       <c r="IU110" s="20"/>
       <c r="IV110" s="20"/>
     </row>
-    <row r="111" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="26">
         <v>110</v>
       </c>
@@ -55198,7 +55209,7 @@
       <c r="IU111" s="20"/>
       <c r="IV111" s="20"/>
     </row>
-    <row r="112" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="26">
         <v>111</v>
       </c>
@@ -55484,7 +55495,7 @@
       <c r="IU112" s="20"/>
       <c r="IV112" s="20"/>
     </row>
-    <row r="113" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="26">
         <v>112</v>
       </c>
@@ -55770,7 +55781,7 @@
       <c r="IU113" s="20"/>
       <c r="IV113" s="20"/>
     </row>
-    <row r="114" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="26">
         <v>113</v>
       </c>
@@ -56056,7 +56067,7 @@
       <c r="IU114" s="20"/>
       <c r="IV114" s="20"/>
     </row>
-    <row r="115" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="26">
         <v>114</v>
       </c>
@@ -56342,7 +56353,7 @@
       <c r="IU115" s="20"/>
       <c r="IV115" s="20"/>
     </row>
-    <row r="116" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="26">
         <v>115</v>
       </c>
@@ -56628,7 +56639,7 @@
       <c r="IU116" s="20"/>
       <c r="IV116" s="20"/>
     </row>
-    <row r="117" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="26">
         <v>116</v>
       </c>
@@ -56914,7 +56925,7 @@
       <c r="IU117" s="20"/>
       <c r="IV117" s="20"/>
     </row>
-    <row r="118" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="26">
         <v>117</v>
       </c>
@@ -57200,7 +57211,7 @@
       <c r="IU118" s="20"/>
       <c r="IV118" s="20"/>
     </row>
-    <row r="119" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="26">
         <v>118</v>
       </c>
@@ -57486,7 +57497,7 @@
       <c r="IU119" s="20"/>
       <c r="IV119" s="20"/>
     </row>
-    <row r="120" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="26">
         <v>119</v>
       </c>
@@ -57772,7 +57783,7 @@
       <c r="IU120" s="20"/>
       <c r="IV120" s="20"/>
     </row>
-    <row r="121" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="26">
         <v>120</v>
       </c>
@@ -58058,7 +58069,7 @@
       <c r="IU121" s="20"/>
       <c r="IV121" s="20"/>
     </row>
-    <row r="122" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="26">
         <v>121</v>
       </c>
@@ -58344,7 +58355,7 @@
       <c r="IU122" s="20"/>
       <c r="IV122" s="20"/>
     </row>
-    <row r="123" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="26">
         <v>122</v>
       </c>
@@ -58630,7 +58641,7 @@
       <c r="IU123" s="20"/>
       <c r="IV123" s="20"/>
     </row>
-    <row r="124" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="26">
         <v>123</v>
       </c>
@@ -58916,7 +58927,7 @@
       <c r="IU124" s="20"/>
       <c r="IV124" s="20"/>
     </row>
-    <row r="125" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="26">
         <v>124</v>
       </c>
@@ -59202,7 +59213,7 @@
       <c r="IU125" s="20"/>
       <c r="IV125" s="20"/>
     </row>
-    <row r="126" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="26">
         <v>125</v>
       </c>
@@ -59488,7 +59499,7 @@
       <c r="IU126" s="20"/>
       <c r="IV126" s="20"/>
     </row>
-    <row r="127" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="26">
         <v>126</v>
       </c>
@@ -59774,7 +59785,7 @@
       <c r="IU127" s="20"/>
       <c r="IV127" s="20"/>
     </row>
-    <row r="128" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="26">
         <v>127</v>
       </c>
@@ -60060,7 +60071,7 @@
       <c r="IU128" s="20"/>
       <c r="IV128" s="20"/>
     </row>
-    <row r="129" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="26">
         <v>128</v>
       </c>
@@ -60346,7 +60357,7 @@
       <c r="IU129" s="20"/>
       <c r="IV129" s="20"/>
     </row>
-    <row r="130" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="26">
         <v>129</v>
       </c>
@@ -60632,7 +60643,7 @@
       <c r="IU130" s="20"/>
       <c r="IV130" s="20"/>
     </row>
-    <row r="131" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="26">
         <v>130</v>
       </c>
@@ -60918,7 +60929,7 @@
       <c r="IU131" s="20"/>
       <c r="IV131" s="20"/>
     </row>
-    <row r="132" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="26">
         <v>131</v>
       </c>
@@ -61204,7 +61215,7 @@
       <c r="IU132" s="20"/>
       <c r="IV132" s="20"/>
     </row>
-    <row r="133" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="26">
         <v>132</v>
       </c>
@@ -61490,7 +61501,7 @@
       <c r="IU133" s="20"/>
       <c r="IV133" s="20"/>
     </row>
-    <row r="134" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="26">
         <v>133</v>
       </c>
@@ -61776,7 +61787,7 @@
       <c r="IU134" s="20"/>
       <c r="IV134" s="20"/>
     </row>
-    <row r="135" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="26">
         <v>134</v>
       </c>
@@ -62062,7 +62073,7 @@
       <c r="IU135" s="20"/>
       <c r="IV135" s="20"/>
     </row>
-    <row r="136" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="26">
         <v>135</v>
       </c>
@@ -62348,7 +62359,7 @@
       <c r="IU136" s="20"/>
       <c r="IV136" s="20"/>
     </row>
-    <row r="137" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="26">
         <v>136</v>
       </c>
@@ -62634,7 +62645,7 @@
       <c r="IU137" s="20"/>
       <c r="IV137" s="20"/>
     </row>
-    <row r="138" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="26">
         <v>137</v>
       </c>
@@ -62920,7 +62931,7 @@
       <c r="IU138" s="20"/>
       <c r="IV138" s="20"/>
     </row>
-    <row r="139" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="26">
         <v>138</v>
       </c>
@@ -63206,7 +63217,7 @@
       <c r="IU139" s="20"/>
       <c r="IV139" s="20"/>
     </row>
-    <row r="140" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="26">
         <v>139</v>
       </c>
@@ -63492,7 +63503,7 @@
       <c r="IU140" s="20"/>
       <c r="IV140" s="20"/>
     </row>
-    <row r="141" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" s="26">
         <v>140</v>
       </c>
@@ -63778,7 +63789,7 @@
       <c r="IU141" s="20"/>
       <c r="IV141" s="20"/>
     </row>
-    <row r="142" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="26">
         <v>141</v>
       </c>
@@ -64064,7 +64075,7 @@
       <c r="IU142" s="20"/>
       <c r="IV142" s="20"/>
     </row>
-    <row r="143" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="26">
         <v>142</v>
       </c>
@@ -64350,7 +64361,7 @@
       <c r="IU143" s="20"/>
       <c r="IV143" s="20"/>
     </row>
-    <row r="144" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="26">
         <v>143</v>
       </c>
@@ -64636,7 +64647,7 @@
       <c r="IU144" s="20"/>
       <c r="IV144" s="20"/>
     </row>
-    <row r="145" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="26">
         <v>144</v>
       </c>
@@ -64922,7 +64933,7 @@
       <c r="IU145" s="20"/>
       <c r="IV145" s="20"/>
     </row>
-    <row r="146" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="26">
         <v>145</v>
       </c>
@@ -65208,7 +65219,7 @@
       <c r="IU146" s="20"/>
       <c r="IV146" s="20"/>
     </row>
-    <row r="147" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="26">
         <v>146</v>
       </c>
@@ -65494,7 +65505,7 @@
       <c r="IU147" s="20"/>
       <c r="IV147" s="20"/>
     </row>
-    <row r="148" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="26">
         <v>147</v>
       </c>
@@ -65780,7 +65791,7 @@
       <c r="IU148" s="20"/>
       <c r="IV148" s="20"/>
     </row>
-    <row r="149" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="26">
         <v>148</v>
       </c>
@@ -66066,7 +66077,7 @@
       <c r="IU149" s="20"/>
       <c r="IV149" s="20"/>
     </row>
-    <row r="150" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="26">
         <v>149</v>
       </c>
@@ -66352,7 +66363,7 @@
       <c r="IU150" s="20"/>
       <c r="IV150" s="20"/>
     </row>
-    <row r="151" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="26">
         <v>150</v>
       </c>
@@ -66638,7 +66649,7 @@
       <c r="IU151" s="20"/>
       <c r="IV151" s="20"/>
     </row>
-    <row r="152" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="26">
         <v>151</v>
       </c>
@@ -66924,7 +66935,7 @@
       <c r="IU152" s="20"/>
       <c r="IV152" s="20"/>
     </row>
-    <row r="153" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="26">
         <v>152</v>
       </c>
@@ -67210,7 +67221,7 @@
       <c r="IU153" s="20"/>
       <c r="IV153" s="20"/>
     </row>
-    <row r="154" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="26">
         <v>153</v>
       </c>
@@ -67496,7 +67507,7 @@
       <c r="IU154" s="20"/>
       <c r="IV154" s="20"/>
     </row>
-    <row r="155" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="26">
         <v>154</v>
       </c>
@@ -67782,7 +67793,7 @@
       <c r="IU155" s="20"/>
       <c r="IV155" s="20"/>
     </row>
-    <row r="156" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="26">
         <v>155</v>
       </c>
@@ -68068,7 +68079,7 @@
       <c r="IU156" s="20"/>
       <c r="IV156" s="20"/>
     </row>
-    <row r="157" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="26">
         <v>156</v>
       </c>
@@ -68354,7 +68365,7 @@
       <c r="IU157" s="20"/>
       <c r="IV157" s="20"/>
     </row>
-    <row r="158" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="26">
         <v>157</v>
       </c>
@@ -68640,7 +68651,7 @@
       <c r="IU158" s="20"/>
       <c r="IV158" s="20"/>
     </row>
-    <row r="159" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="26">
         <v>158</v>
       </c>
@@ -68926,7 +68937,7 @@
       <c r="IU159" s="20"/>
       <c r="IV159" s="20"/>
     </row>
-    <row r="160" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="26">
         <v>159</v>
       </c>
@@ -69212,7 +69223,7 @@
       <c r="IU160" s="20"/>
       <c r="IV160" s="20"/>
     </row>
-    <row r="161" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="26">
         <v>160</v>
       </c>
@@ -69498,7 +69509,7 @@
       <c r="IU161" s="20"/>
       <c r="IV161" s="20"/>
     </row>
-    <row r="162" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="26">
         <v>161</v>
       </c>
@@ -69784,7 +69795,7 @@
       <c r="IU162" s="20"/>
       <c r="IV162" s="20"/>
     </row>
-    <row r="163" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="26">
         <v>162</v>
       </c>
@@ -70070,7 +70081,7 @@
       <c r="IU163" s="20"/>
       <c r="IV163" s="20"/>
     </row>
-    <row r="164" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="26">
         <v>163</v>
       </c>
@@ -70356,7 +70367,7 @@
       <c r="IU164" s="20"/>
       <c r="IV164" s="20"/>
     </row>
-    <row r="165" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="26">
         <v>164</v>
       </c>
@@ -70642,7 +70653,7 @@
       <c r="IU165" s="20"/>
       <c r="IV165" s="20"/>
     </row>
-    <row r="166" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="26">
         <v>165</v>
       </c>
@@ -70928,7 +70939,7 @@
       <c r="IU166" s="20"/>
       <c r="IV166" s="20"/>
     </row>
-    <row r="167" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="26">
         <v>166</v>
       </c>
@@ -71214,7 +71225,7 @@
       <c r="IU167" s="20"/>
       <c r="IV167" s="20"/>
     </row>
-    <row r="168" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="26">
         <v>167</v>
       </c>
@@ -71500,7 +71511,7 @@
       <c r="IU168" s="20"/>
       <c r="IV168" s="20"/>
     </row>
-    <row r="169" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="26">
         <v>168</v>
       </c>
@@ -71786,7 +71797,7 @@
       <c r="IU169" s="20"/>
       <c r="IV169" s="20"/>
     </row>
-    <row r="170" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="26">
         <v>169</v>
       </c>
@@ -72072,7 +72083,7 @@
       <c r="IU170" s="20"/>
       <c r="IV170" s="20"/>
     </row>
-    <row r="171" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="26">
         <v>170</v>
       </c>
@@ -72358,7 +72369,7 @@
       <c r="IU171" s="20"/>
       <c r="IV171" s="20"/>
     </row>
-    <row r="172" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="26">
         <v>171</v>
       </c>
@@ -72644,7 +72655,7 @@
       <c r="IU172" s="20"/>
       <c r="IV172" s="20"/>
     </row>
-    <row r="173" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="26">
         <v>172</v>
       </c>
@@ -72930,7 +72941,7 @@
       <c r="IU173" s="20"/>
       <c r="IV173" s="20"/>
     </row>
-    <row r="174" spans="1:256" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:256" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="26">
         <v>173</v>
       </c>
@@ -73216,7 +73227,7 @@
       <c r="IU174" s="20"/>
       <c r="IV174" s="20"/>
     </row>
-    <row r="175" spans="1:256" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:256" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="26">
         <v>17</v>
       </c>
@@ -73503,14 +73514,14 @@
       <c r="IV175" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XFD175">
+  <autoFilter ref="A1:XFD175" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="강남구"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1:XFD174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD174">
     <sortCondition ref="D1:D174"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -73520,141 +73531,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="12.625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.58203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="12.58203125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="12.58203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="38" t="s">
         <v>1082</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
     </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="37" t="s">
         <v>1167</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>1173</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="41"/>
     </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42" t="s">
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
         <v>1172</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="43" t="s">
         <v>1171</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="O4" s="42"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="43" t="s">
         <v>1171</v>
       </c>
-      <c r="R4" s="41"/>
+      <c r="R4" s="44"/>
     </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14" t="s">
         <v>1157</v>
       </c>
@@ -73704,7 +73715,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>1237</v>
       </c>
@@ -73776,8 +73787,8 @@
         <v>532393</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="36" t="s">
         <v>1238</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -73848,8 +73859,8 @@
         <v>48887</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36"/>
       <c r="B8" s="12" t="s">
         <v>1134</v>
       </c>
@@ -73902,8 +73913,8 @@
         <v>18504</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36"/>
       <c r="B9" s="10" t="s">
         <v>1168</v>
       </c>
@@ -73956,8 +73967,8 @@
         <v>3628</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36"/>
       <c r="B10" s="10" t="s">
         <v>1124</v>
       </c>
@@ -74010,8 +74021,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36"/>
       <c r="B11" s="10" t="s">
         <v>1169</v>
       </c>
@@ -74064,8 +74075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36"/>
       <c r="B12" s="10" t="s">
         <v>1152</v>
       </c>
@@ -74118,8 +74129,8 @@
         <v>22035</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36"/>
       <c r="B13" s="10" t="s">
         <v>1166</v>
       </c>
@@ -74172,8 +74183,8 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="36"/>
       <c r="B14" s="16" t="s">
         <v>791</v>
       </c>
@@ -74242,8 +74253,8 @@
         <v>483506</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="36"/>
       <c r="B15" s="12" t="s">
         <v>1134</v>
       </c>
@@ -74296,8 +74307,8 @@
         <v>65329</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36"/>
       <c r="B16" s="10" t="s">
         <v>1168</v>
       </c>
@@ -74350,8 +74361,8 @@
         <v>36209</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36"/>
       <c r="B17" s="10" t="s">
         <v>1124</v>
       </c>
@@ -74404,8 +74415,8 @@
         <v>24847</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36"/>
       <c r="B18" s="10" t="s">
         <v>1169</v>
       </c>
@@ -74458,8 +74469,8 @@
         <v>38036</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36"/>
       <c r="B19" s="10" t="s">
         <v>1152</v>
       </c>
@@ -74512,8 +74523,8 @@
         <v>29278</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>1166</v>
       </c>
@@ -74566,8 +74577,8 @@
         <v>36201</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36"/>
       <c r="B21" s="10" t="s">
         <v>1162</v>
       </c>
@@ -74620,8 +74631,8 @@
         <v>28812</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36"/>
       <c r="B22" s="10" t="s">
         <v>1164</v>
       </c>
@@ -74674,8 +74685,8 @@
         <v>34686</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="36"/>
       <c r="B23" s="10" t="s">
         <v>1165</v>
       </c>
@@ -74728,8 +74739,8 @@
         <v>36083</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36"/>
       <c r="B24" s="10" t="s">
         <v>1160</v>
       </c>
@@ -74782,8 +74793,8 @@
         <v>46359</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="36"/>
       <c r="B25" s="10" t="s">
         <v>1156</v>
       </c>
@@ -74836,8 +74847,8 @@
         <v>63635</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="36"/>
       <c r="B26" s="10" t="s">
         <v>1159</v>
       </c>
@@ -74890,11 +74901,16 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
@@ -74904,11 +74920,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.20305556058883667" right="0.14986111223697662" top="0.25777778029441833" bottom="0.16152778267860413" header="3.0833333730697632E-2" footer="0.15333333611488342"/>
